--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627361.5596107766</v>
+        <v>624753.935175039</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21433084.42881596</v>
+        <v>21433084.42881597</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4507704.360022029</v>
+        <v>4507704.360022028</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>142.7478198275189</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>50.00965678565658</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>181.397026133924</v>
+        <v>160.6331492091107</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>65.99876997414435</v>
+        <v>362.6751487885534</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.77353408464242</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>105.8484057811896</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>69.57079805412768</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>54.5418742112248</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1305,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>152.8210171588107</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>15.64675554943897</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>343.9977178379326</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>399.1130476160062</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T11" t="n">
-        <v>22.72179519309455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6767503759167</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>47.7493046564579</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1578,10 +1578,10 @@
         <v>22.71571549420976</v>
       </c>
       <c r="S13" t="n">
-        <v>119.347713602074</v>
+        <v>159.1887991287653</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>238.6393387500226</v>
       </c>
       <c r="U13" t="n">
         <v>277.3536684970859</v>
@@ -1609,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>187.8600775125647</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>53.72049091431573</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1773,13 +1773,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.0639155191421</v>
+        <v>72.8453305253128</v>
       </c>
       <c r="H16" t="n">
         <v>137.64181643604</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.0634290962838</v>
+        <v>159.1887991287653</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>238.6393387500226</v>
       </c>
       <c r="U16" t="n">
         <v>277.3536684970859</v>
@@ -1852,10 +1852,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>186.9455252793528</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>186.1012948182255</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>126.3784799979664</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2019,10 +2019,10 @@
         <v>164.0639155191421</v>
       </c>
       <c r="H19" t="n">
-        <v>137.64181643604</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.71571549420977</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>159.1887991287653</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>238.6393387500226</v>
       </c>
       <c r="U19" t="n">
-        <v>237.5125829703945</v>
+        <v>277.3536684970859</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>90.137679268692</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>172.8311536696622</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>22.71571549420977</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>159.1887991287653</v>
       </c>
       <c r="T22" t="n">
-        <v>238.6393387500226</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3536684970859</v>
+        <v>260.2282984646043</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.8632253753859</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T24" t="n">
         <v>137.910670650556</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.0639155191421</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>101.1679584880252</v>
+        <v>159.1887991287653</v>
       </c>
       <c r="T25" t="n">
-        <v>238.6393387500226</v>
+        <v>146.9385454866607</v>
       </c>
       <c r="U25" t="n">
         <v>277.3536684970859</v>
@@ -2608,10 +2608,10 @@
         <v>76.37457290169868</v>
       </c>
       <c r="T26" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6767503759167</v>
+        <v>246.8304701168852</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,7 +2620,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>185.2171406451851</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T27" t="n">
         <v>137.910670650556</v>
@@ -2730,7 +2730,7 @@
         <v>164.0639155191421</v>
       </c>
       <c r="H28" t="n">
-        <v>137.64181643604</v>
+        <v>18.35019128809095</v>
       </c>
       <c r="I28" t="n">
         <v>82.81776719993368</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>175.5279701354735</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>399.1130476160062</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>282.778144955191</v>
@@ -2845,13 +2845,13 @@
         <v>76.37457290169868</v>
       </c>
       <c r="T29" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>161.2359991515847</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>289.5213420968699</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T30" t="n">
         <v>137.910670650556</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H31" t="n">
-        <v>23.22530767846811</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I31" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>159.1887991287653</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>238.6393387500226</v>
+        <v>224.8811962962176</v>
       </c>
       <c r="U31" t="n">
         <v>277.3536684970859</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>353.9086776334822</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>303.6160003707491</v>
+        <v>399.1130476160062</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3097,7 +3097,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T33" t="n">
         <v>137.910670650556</v>
@@ -3198,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>55.72664772561331</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H34" t="n">
         <v>137.64181643604</v>
       </c>
       <c r="I34" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>159.1887991287653</v>
       </c>
       <c r="T34" t="n">
-        <v>238.6393387500226</v>
+        <v>65.6923971674522</v>
       </c>
       <c r="U34" t="n">
         <v>277.3536684970859</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>384.8084710066103</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>399.1130476160062</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>76.37457290169868</v>
       </c>
       <c r="T35" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>373.2874520888969</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T36" t="n">
         <v>137.910670650556</v>
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.0639155191421</v>
+        <v>69.98281188113481</v>
       </c>
       <c r="H37" t="n">
         <v>137.64181643604</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>159.1887991287653</v>
       </c>
       <c r="T37" t="n">
-        <v>237.5125829703945</v>
+        <v>238.6393387500226</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3536684970859</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>233.9517973222292</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T38" t="n">
         <v>213.5393779397139</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>275.420036271051</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T39" t="n">
         <v>137.910670650556</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>23.225307678468</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>159.1887991287653</v>
+        <v>123.883673982235</v>
       </c>
       <c r="T40" t="n">
         <v>238.6393387500226</v>
@@ -3748,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>399.1130476160062</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U41" t="n">
-        <v>198.2244478442723</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>132.4528752060427</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T42" t="n">
         <v>137.910670650556</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>70.46502015066771</v>
       </c>
       <c r="F43" t="n">
-        <v>56.2088559951461</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.0639155191421</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>159.1887991287653</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>162.6571616902193</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>399.1130476160062</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>76.37457290169868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U44" t="n">
-        <v>109.7267219165271</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>68.75777077803106</v>
+        <v>68.75777077803107</v>
       </c>
       <c r="T45" t="n">
         <v>137.910670650556</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.0639155191421</v>
+        <v>128.7587903726115</v>
       </c>
       <c r="H46" t="n">
-        <v>137.64181643604</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>159.1887991287653</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>238.6393387500226</v>
       </c>
       <c r="U46" t="n">
-        <v>237.5125829703945</v>
+        <v>277.3536684970859</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.3435071337996</v>
+        <v>1263.189564997102</v>
       </c>
       <c r="C2" t="n">
-        <v>99.48318118750379</v>
+        <v>836.2888350104018</v>
       </c>
       <c r="D2" t="n">
-        <v>80.23096441290814</v>
+        <v>817.0366182358061</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>391.0596783836638</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>369.9759006134681</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I2" t="n">
         <v>36.91199246082674</v>
@@ -4333,22 +4333,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M2" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N2" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
         <v>1728.043288159434</v>
@@ -4357,25 +4357,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X2" t="n">
-        <v>947.5291414704393</v>
+        <v>1733.552734122628</v>
       </c>
       <c r="Y2" t="n">
-        <v>542.1918714253296</v>
+        <v>1683.037929288632</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="L3" t="n">
         <v>772.8420314050604</v>
       </c>
-      <c r="L3" t="n">
-        <v>1229.627938107791</v>
-      </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N3" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O3" t="n">
         <v>1306.794406253903</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>446.7337989181643</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C4" t="n">
-        <v>446.7337989181643</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D4" t="n">
-        <v>446.7337989181643</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7337989181643</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4521,19 +4521,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U4" t="n">
-        <v>1662.370303714141</v>
+        <v>1683.343916769508</v>
       </c>
       <c r="V4" t="n">
-        <v>1380.65883632217</v>
+        <v>1401.632449377537</v>
       </c>
       <c r="W4" t="n">
-        <v>1105.806432494683</v>
+        <v>1126.78004555005</v>
       </c>
       <c r="X4" t="n">
-        <v>863.2425359404879</v>
+        <v>1126.78004555005</v>
       </c>
       <c r="Y4" t="n">
-        <v>636.8997676302299</v>
+        <v>900.4372772397917</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>608.6939898724443</v>
+        <v>1716.447907866797</v>
       </c>
       <c r="C5" t="n">
-        <v>181.7932598857444</v>
+        <v>1693.587581920501</v>
       </c>
       <c r="D5" t="n">
-        <v>115.1278356694369</v>
+        <v>1327.249047790649</v>
       </c>
       <c r="E5" t="n">
-        <v>93.19129985769854</v>
+        <v>901.2721079385067</v>
       </c>
       <c r="F5" t="n">
-        <v>72.10752208750284</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G5" t="n">
         <v>71.80886371735554</v>
@@ -4570,49 +4570,49 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>815.1719019525203</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M5" t="n">
-        <v>815.1719019525203</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>1733.552734122628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1028.542354163974</v>
+        <v>1732.255868117923</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254694</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254694</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M6" t="n">
-        <v>501.1445421254694</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N6" t="n">
-        <v>932.027809635875</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O6" t="n">
-        <v>932.027809635875</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.093114985063</v>
+        <v>713.2115053602647</v>
       </c>
       <c r="C7" t="n">
-        <v>948.1205518639796</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1734.89676095343</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4752,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U7" t="n">
-        <v>1432.125227786372</v>
+        <v>1738.682041444176</v>
       </c>
       <c r="V7" t="n">
-        <v>1432.125227786372</v>
+        <v>1456.970574052204</v>
       </c>
       <c r="W7" t="n">
-        <v>1432.125227786372</v>
+        <v>1182.118170224717</v>
       </c>
       <c r="X7" t="n">
-        <v>1189.561331232177</v>
+        <v>939.5542736705227</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.561331232177</v>
+        <v>713.2115053602647</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1820.815201993657</v>
+        <v>965.3211864711366</v>
       </c>
       <c r="C8" t="n">
-        <v>1750.541668605649</v>
+        <v>538.4204564844366</v>
       </c>
       <c r="D8" t="n">
-        <v>1327.249047790649</v>
+        <v>519.1682397098409</v>
       </c>
       <c r="E8" t="n">
-        <v>901.2721079385067</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G8" t="n">
         <v>71.80886371735554</v>
@@ -4804,28 +4804,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L8" t="n">
-        <v>475.942330131692</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M8" t="n">
-        <v>475.942330131692</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N8" t="n">
-        <v>475.942330131692</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344229</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4846,10 +4846,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1790.506820807776</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.623162244782</v>
+        <v>1385.169550762667</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273858</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254695</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M9" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N9" t="n">
-        <v>1414.716355530931</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>804.324283372134</v>
+        <v>864.6359723245046</v>
       </c>
       <c r="C10" t="n">
-        <v>804.324283372134</v>
+        <v>692.6634092034205</v>
       </c>
       <c r="D10" t="n">
-        <v>641.0075104989047</v>
+        <v>529.3466363301912</v>
       </c>
       <c r="E10" t="n">
-        <v>474.7993046517582</v>
+        <v>363.1384304830448</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>191.2766562576052</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U10" t="n">
-        <v>1829.794819456045</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.083352064074</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.230948236587</v>
+        <v>1523.708605901023</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.667051682392</v>
+        <v>1281.144709346828</v>
       </c>
       <c r="Y10" t="n">
-        <v>804.324283372134</v>
+        <v>1054.80194103657</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1309.369227055178</v>
+        <v>1231.717487505116</v>
       </c>
       <c r="C11" t="n">
-        <v>1309.369227055178</v>
+        <v>1231.717487505116</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.369227055178</v>
+        <v>884.2450452445778</v>
       </c>
       <c r="E11" t="n">
-        <v>883.3922872030352</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="F11" t="n">
         <v>458.2681053924354</v>
@@ -5041,52 +5041,52 @@
         <v>66.05837648005487</v>
       </c>
       <c r="J11" t="n">
-        <v>136.3026272933135</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4966075026101</v>
+        <v>668.467655359081</v>
       </c>
       <c r="L11" t="n">
-        <v>962.6513165339195</v>
+        <v>1350.62236439039</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.176238067507</v>
+        <v>1519.147285923978</v>
       </c>
       <c r="N11" t="n">
-        <v>1813.330947098816</v>
+        <v>1691.14886073692</v>
       </c>
       <c r="O11" t="n">
-        <v>2495.485656130125</v>
+        <v>1851.398090489639</v>
       </c>
       <c r="P11" t="n">
-        <v>2626.648253587529</v>
+        <v>1982.560687947043</v>
       </c>
       <c r="Q11" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R11" t="n">
         <v>2756.180642550745</v>
       </c>
       <c r="S11" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T11" t="n">
-        <v>2733.229334274892</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="U11" t="n">
-        <v>2474.969990460834</v>
+        <v>2420.775265502649</v>
       </c>
       <c r="V11" t="n">
-        <v>2117.480575587083</v>
+        <v>2063.285850628899</v>
       </c>
       <c r="W11" t="n">
-        <v>1721.08922588743</v>
+        <v>2063.285850628899</v>
       </c>
       <c r="X11" t="n">
-        <v>1309.369227055178</v>
+        <v>1651.565851796646</v>
       </c>
       <c r="Y11" t="n">
-        <v>1309.369227055178</v>
+        <v>1651.565851796646</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I12" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J12" t="n">
-        <v>391.562484799613</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K12" t="n">
-        <v>470.5422928459636</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L12" t="n">
-        <v>584.2678044156828</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1256034096983</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.280312441008</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O12" t="n">
-        <v>1528.384278087465</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P12" t="n">
-        <v>1769.607512013175</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q12" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R12" t="n">
         <v>1842.509005805703</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1116.890503822072</v>
+        <v>835.5971459668049</v>
       </c>
       <c r="C13" t="n">
-        <v>944.9179407009876</v>
+        <v>663.6245828457209</v>
       </c>
       <c r="D13" t="n">
-        <v>781.6011678277583</v>
+        <v>615.3929619806119</v>
       </c>
       <c r="E13" t="n">
         <v>615.3929619806119</v>
@@ -5226,25 +5226,25 @@
         <v>2733.235475384876</v>
       </c>
       <c r="S13" t="n">
-        <v>2612.682229322175</v>
+        <v>2572.438708588144</v>
       </c>
       <c r="T13" t="n">
-        <v>2612.682229322175</v>
+        <v>2331.388871466909</v>
       </c>
       <c r="U13" t="n">
-        <v>2332.527008618048</v>
+        <v>2051.233650762782</v>
       </c>
       <c r="V13" t="n">
-        <v>2050.815541226077</v>
+        <v>1769.52218337081</v>
       </c>
       <c r="W13" t="n">
-        <v>1775.96313739859</v>
+        <v>1494.669779543323</v>
       </c>
       <c r="X13" t="n">
-        <v>1533.399240844395</v>
+        <v>1252.105882989129</v>
       </c>
       <c r="Y13" t="n">
-        <v>1307.056472534137</v>
+        <v>1025.763114678871</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1519.275009381852</v>
+        <v>1247.046136637715</v>
       </c>
       <c r="C14" t="n">
-        <v>1329.517355328757</v>
+        <v>820.1454066510155</v>
       </c>
       <c r="D14" t="n">
-        <v>906.2247345137571</v>
+        <v>820.1454066510155</v>
       </c>
       <c r="E14" t="n">
-        <v>480.2477946616147</v>
+        <v>765.882284515343</v>
       </c>
       <c r="F14" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="G14" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="H14" t="n">
         <v>55.1236128510149</v>
@@ -5278,52 +5278,52 @@
         <v>66.05837648005486</v>
       </c>
       <c r="J14" t="n">
-        <v>136.3026272933134</v>
+        <v>528.0318460009396</v>
       </c>
       <c r="K14" t="n">
-        <v>249.8255595338024</v>
+        <v>1203.790592259807</v>
       </c>
       <c r="L14" t="n">
-        <v>931.9802685651118</v>
+        <v>1350.62236439039</v>
       </c>
       <c r="M14" t="n">
-        <v>1614.134977596421</v>
+        <v>1519.147285923978</v>
       </c>
       <c r="N14" t="n">
-        <v>2296.289686627731</v>
+        <v>1691.14886073692</v>
       </c>
       <c r="O14" t="n">
-        <v>2495.485656130126</v>
+        <v>1851.398090489639</v>
       </c>
       <c r="P14" t="n">
-        <v>2626.648253587529</v>
+        <v>1982.560687947043</v>
       </c>
       <c r="Q14" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R14" t="n">
         <v>2756.180642550745</v>
       </c>
       <c r="S14" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T14" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="U14" t="n">
-        <v>2756.180642550745</v>
+        <v>2420.775265502649</v>
       </c>
       <c r="V14" t="n">
-        <v>2756.180642550745</v>
+        <v>2063.285850628899</v>
       </c>
       <c r="W14" t="n">
-        <v>2756.180642550745</v>
+        <v>1666.894500929245</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.460643718492</v>
+        <v>1666.894500929245</v>
       </c>
       <c r="Y14" t="n">
-        <v>1939.123373673383</v>
+        <v>1666.894500929245</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I15" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J15" t="n">
-        <v>99.45999233002198</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K15" t="n">
-        <v>178.4398003763726</v>
+        <v>493.9995986903755</v>
       </c>
       <c r="L15" t="n">
-        <v>292.1653119460918</v>
+        <v>607.7251102600947</v>
       </c>
       <c r="M15" t="n">
-        <v>974.3200209774011</v>
+        <v>743.5829092541102</v>
       </c>
       <c r="N15" t="n">
-        <v>1116.114976452099</v>
+        <v>885.3778647288085</v>
       </c>
       <c r="O15" t="n">
-        <v>1671.53958532443</v>
+        <v>1011.481830375266</v>
       </c>
       <c r="P15" t="n">
-        <v>1769.607512013175</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q15" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R15" t="n">
         <v>1842.509005805703</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1116.890503822072</v>
+        <v>858.5423131326734</v>
       </c>
       <c r="C16" t="n">
-        <v>944.9179407009876</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="D16" t="n">
-        <v>781.6011678277583</v>
+        <v>523.2529771383601</v>
       </c>
       <c r="E16" t="n">
-        <v>615.3929619806119</v>
+        <v>523.2529771383601</v>
       </c>
       <c r="F16" t="n">
-        <v>443.5311877551723</v>
+        <v>351.3912029129204</v>
       </c>
       <c r="G16" t="n">
         <v>277.81006096816</v>
@@ -5442,10 +5442,10 @@
         <v>437.289069149471</v>
       </c>
       <c r="L16" t="n">
-        <v>870.0582805254608</v>
+        <v>870.0582805254605</v>
       </c>
       <c r="M16" t="n">
-        <v>1343.568371978315</v>
+        <v>1343.568371978314</v>
       </c>
       <c r="N16" t="n">
         <v>1801.426691570447</v>
@@ -5463,25 +5463,25 @@
         <v>2756.180642550745</v>
       </c>
       <c r="S16" t="n">
-        <v>2612.682229322175</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T16" t="n">
-        <v>2612.682229322175</v>
+        <v>2354.334038632777</v>
       </c>
       <c r="U16" t="n">
-        <v>2332.527008618048</v>
+        <v>2074.17881792865</v>
       </c>
       <c r="V16" t="n">
-        <v>2050.815541226077</v>
+        <v>1792.467350536679</v>
       </c>
       <c r="W16" t="n">
-        <v>1775.96313739859</v>
+        <v>1517.614946709192</v>
       </c>
       <c r="X16" t="n">
-        <v>1533.399240844395</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y16" t="n">
-        <v>1307.056472534137</v>
+        <v>1048.708281844739</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>669.0816585801529</v>
       </c>
       <c r="E17" t="n">
-        <v>480.2477946616147</v>
+        <v>243.1047187280104</v>
       </c>
       <c r="F17" t="n">
         <v>55.1236128510149</v>
@@ -5521,16 +5521,16 @@
         <v>249.8255595338024</v>
       </c>
       <c r="L17" t="n">
-        <v>396.6573316643859</v>
+        <v>438.2391235965141</v>
       </c>
       <c r="M17" t="n">
-        <v>1078.812040695695</v>
+        <v>1120.393832627823</v>
       </c>
       <c r="N17" t="n">
-        <v>1760.966749727005</v>
+        <v>1292.395407440766</v>
       </c>
       <c r="O17" t="n">
-        <v>1921.215979479724</v>
+        <v>1452.644637193485</v>
       </c>
       <c r="P17" t="n">
         <v>2134.799346224794</v>
@@ -5594,25 +5594,25 @@
         <v>60.68089789744997</v>
       </c>
       <c r="J18" t="n">
-        <v>99.45999233002198</v>
+        <v>391.562484799613</v>
       </c>
       <c r="K18" t="n">
-        <v>178.4398003763726</v>
+        <v>1073.717193830922</v>
       </c>
       <c r="L18" t="n">
-        <v>860.5945094076819</v>
+        <v>1187.442705400642</v>
       </c>
       <c r="M18" t="n">
-        <v>1403.640664203275</v>
+        <v>1323.300504394657</v>
       </c>
       <c r="N18" t="n">
-        <v>1545.435619677973</v>
+        <v>1465.095459869356</v>
       </c>
       <c r="O18" t="n">
-        <v>1671.53958532443</v>
+        <v>1591.199425515813</v>
       </c>
       <c r="P18" t="n">
-        <v>1769.607512013175</v>
+        <v>1689.267352204558</v>
       </c>
       <c r="Q18" t="n">
         <v>1827.051454492275</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1116.890503822072</v>
+        <v>858.5423131326734</v>
       </c>
       <c r="C19" t="n">
-        <v>944.9179407009876</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="D19" t="n">
-        <v>781.6011678277583</v>
+        <v>558.9147197106132</v>
       </c>
       <c r="E19" t="n">
-        <v>615.3929619806119</v>
+        <v>392.7065138634667</v>
       </c>
       <c r="F19" t="n">
-        <v>443.5311877551723</v>
+        <v>220.8447396380271</v>
       </c>
       <c r="G19" t="n">
-        <v>277.81006096816</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7779231539782</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="I19" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="J19" t="n">
-        <v>149.7451419535122</v>
+        <v>149.7451419535123</v>
       </c>
       <c r="K19" t="n">
-        <v>437.289069149471</v>
+        <v>437.2890691494712</v>
       </c>
       <c r="L19" t="n">
-        <v>870.0582805254605</v>
+        <v>870.0582805254608</v>
       </c>
       <c r="M19" t="n">
-        <v>1343.568371978314</v>
+        <v>1343.568371978315</v>
       </c>
       <c r="N19" t="n">
         <v>1801.426691570447</v>
@@ -5697,28 +5697,28 @@
         <v>2756.180642550745</v>
       </c>
       <c r="R19" t="n">
-        <v>2733.235475384876</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S19" t="n">
-        <v>2572.438708588144</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T19" t="n">
-        <v>2572.438708588144</v>
+        <v>2354.334038632777</v>
       </c>
       <c r="U19" t="n">
-        <v>2332.527008618048</v>
+        <v>2074.17881792865</v>
       </c>
       <c r="V19" t="n">
-        <v>2050.815541226077</v>
+        <v>1792.467350536679</v>
       </c>
       <c r="W19" t="n">
-        <v>1775.96313739859</v>
+        <v>1517.614946709192</v>
       </c>
       <c r="X19" t="n">
-        <v>1533.399240844395</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y19" t="n">
-        <v>1307.056472534137</v>
+        <v>1048.708281844739</v>
       </c>
     </row>
     <row r="20">
@@ -5755,16 +5755,16 @@
         <v>136.3026272933134</v>
       </c>
       <c r="K20" t="n">
-        <v>249.8255595338024</v>
+        <v>818.4573363246228</v>
       </c>
       <c r="L20" t="n">
-        <v>931.9802685651118</v>
+        <v>1500.612045355932</v>
       </c>
       <c r="M20" t="n">
-        <v>1614.134977596421</v>
+        <v>1669.136966889519</v>
       </c>
       <c r="N20" t="n">
-        <v>2296.289686627731</v>
+        <v>1841.138541702462</v>
       </c>
       <c r="O20" t="n">
         <v>2495.485656130126</v>
@@ -5779,22 +5779,22 @@
         <v>2756.180642550745</v>
       </c>
       <c r="S20" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T20" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="U20" t="n">
-        <v>2756.180642550745</v>
+        <v>2587.986448439239</v>
       </c>
       <c r="V20" t="n">
-        <v>2756.180642550745</v>
+        <v>2587.986448439239</v>
       </c>
       <c r="W20" t="n">
-        <v>2756.180642550745</v>
+        <v>2587.986448439239</v>
       </c>
       <c r="X20" t="n">
-        <v>2581.603719652096</v>
+        <v>2176.266449606986</v>
       </c>
       <c r="Y20" t="n">
         <v>2176.266449606986</v>
@@ -5828,25 +5828,25 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I21" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J21" t="n">
-        <v>391.562484799613</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K21" t="n">
-        <v>470.5422928459636</v>
+        <v>493.9995986903755</v>
       </c>
       <c r="L21" t="n">
-        <v>584.2678044156828</v>
+        <v>607.7251102600947</v>
       </c>
       <c r="M21" t="n">
-        <v>811.5201191495011</v>
+        <v>743.5829092541102</v>
       </c>
       <c r="N21" t="n">
-        <v>953.3150746241994</v>
+        <v>885.3778647288085</v>
       </c>
       <c r="O21" t="n">
-        <v>1079.419040270657</v>
+        <v>1011.481830375266</v>
       </c>
       <c r="P21" t="n">
         <v>1177.486966959402</v>
@@ -5910,16 +5910,16 @@
         <v>55.1236128510149</v>
       </c>
       <c r="J22" t="n">
-        <v>149.7451419535123</v>
+        <v>149.7451419535122</v>
       </c>
       <c r="K22" t="n">
-        <v>437.2890691494713</v>
+        <v>437.289069149471</v>
       </c>
       <c r="L22" t="n">
-        <v>870.058280525461</v>
+        <v>870.0582805254605</v>
       </c>
       <c r="M22" t="n">
-        <v>1343.568371978315</v>
+        <v>1343.568371978314</v>
       </c>
       <c r="N22" t="n">
         <v>1801.426691570447</v>
@@ -5934,28 +5934,28 @@
         <v>2756.180642550745</v>
       </c>
       <c r="R22" t="n">
-        <v>2733.235475384876</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S22" t="n">
-        <v>2572.438708588144</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T22" t="n">
-        <v>2331.388871466908</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="U22" t="n">
-        <v>2051.233650762781</v>
+        <v>2332.527008618048</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.52218337081</v>
+        <v>2050.815541226077</v>
       </c>
       <c r="W22" t="n">
-        <v>1494.669779543323</v>
+        <v>1775.96313739859</v>
       </c>
       <c r="X22" t="n">
-        <v>1252.105882989128</v>
+        <v>1533.399240844395</v>
       </c>
       <c r="Y22" t="n">
-        <v>1116.890503822072</v>
+        <v>1307.056472534137</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2490.725731818842</v>
+        <v>2490.72573181884</v>
       </c>
       <c r="C23" t="n">
-        <v>2063.825001832142</v>
+        <v>2063.82500183214</v>
       </c>
       <c r="D23" t="n">
-        <v>1640.532381017142</v>
+        <v>1640.53238101714</v>
       </c>
       <c r="E23" t="n">
-        <v>1214.555441164999</v>
+        <v>1214.555441164998</v>
       </c>
       <c r="F23" t="n">
-        <v>789.4312593543991</v>
+        <v>789.4312593543982</v>
       </c>
       <c r="G23" t="n">
-        <v>386.286766812978</v>
+        <v>386.2867668129775</v>
       </c>
       <c r="H23" t="n">
         <v>100.6522769592496</v>
@@ -6001,10 +6001,10 @@
         <v>2320.178562350132</v>
       </c>
       <c r="N23" t="n">
-        <v>2492.180137163074</v>
+        <v>2492.180137163075</v>
       </c>
       <c r="O23" t="n">
-        <v>3534.591066829069</v>
+        <v>3534.59106682907</v>
       </c>
       <c r="P23" t="n">
         <v>4411.23255163653</v>
@@ -6016,25 +6016,25 @@
         <v>5032.613847962481</v>
       </c>
       <c r="S23" t="n">
-        <v>4955.467814728442</v>
+        <v>4955.467814728441</v>
       </c>
       <c r="T23" t="n">
         <v>4739.771473375195</v>
       </c>
       <c r="U23" t="n">
-        <v>4481.512129561138</v>
+        <v>4481.512129561137</v>
       </c>
       <c r="V23" t="n">
-        <v>4124.022714687388</v>
+        <v>4124.022714687386</v>
       </c>
       <c r="W23" t="n">
-        <v>3727.631364987734</v>
+        <v>3727.631364987732</v>
       </c>
       <c r="X23" t="n">
-        <v>3315.911366155482</v>
+        <v>3315.91136615548</v>
       </c>
       <c r="Y23" t="n">
-        <v>2910.574096110372</v>
+        <v>2910.57409611037</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>106.2095620056847</v>
       </c>
       <c r="J24" t="n">
-        <v>144.9886564382567</v>
+        <v>437.0911489078478</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9684644846073</v>
+        <v>1128.731125017538</v>
       </c>
       <c r="L24" t="n">
-        <v>337.6939760543265</v>
+        <v>1242.456636587257</v>
       </c>
       <c r="M24" t="n">
-        <v>473.5517750483421</v>
+        <v>1378.314435581273</v>
       </c>
       <c r="N24" t="n">
-        <v>678.5428349497361</v>
+        <v>1520.109391055971</v>
       </c>
       <c r="O24" t="n">
-        <v>1717.068249432665</v>
+        <v>1646.213356702429</v>
       </c>
       <c r="P24" t="n">
-        <v>1815.13617612141</v>
+        <v>1744.281283391174</v>
       </c>
       <c r="Q24" t="n">
         <v>1872.58011860051</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>939.7327198131612</v>
+        <v>996.6980411432941</v>
       </c>
       <c r="C25" t="n">
-        <v>767.7601566920772</v>
+        <v>824.72547802221</v>
       </c>
       <c r="D25" t="n">
-        <v>604.4433838188479</v>
+        <v>661.4087051489807</v>
       </c>
       <c r="E25" t="n">
-        <v>438.2351779717014</v>
+        <v>495.2004993018343</v>
       </c>
       <c r="F25" t="n">
-        <v>266.3734037462618</v>
+        <v>323.3387250763947</v>
       </c>
       <c r="G25" t="n">
-        <v>100.6522769592496</v>
+        <v>323.3387250763947</v>
       </c>
       <c r="H25" t="n">
-        <v>100.6522769592496</v>
+        <v>184.3065872622129</v>
       </c>
       <c r="I25" t="n">
         <v>100.6522769592496</v>
@@ -6171,28 +6171,28 @@
         <v>2801.70930665898</v>
       </c>
       <c r="R25" t="n">
-        <v>2778.764139493111</v>
+        <v>2801.70930665898</v>
       </c>
       <c r="S25" t="n">
-        <v>2676.5742824345</v>
+        <v>2640.912539862247</v>
       </c>
       <c r="T25" t="n">
-        <v>2435.524445313265</v>
+        <v>2492.489766643398</v>
       </c>
       <c r="U25" t="n">
-        <v>2155.369224609138</v>
+        <v>2212.33454593927</v>
       </c>
       <c r="V25" t="n">
-        <v>1873.657757217167</v>
+        <v>1930.623078547299</v>
       </c>
       <c r="W25" t="n">
-        <v>1598.80535338968</v>
+        <v>1655.770674719812</v>
       </c>
       <c r="X25" t="n">
-        <v>1356.241456835485</v>
+        <v>1413.206778165618</v>
       </c>
       <c r="Y25" t="n">
-        <v>1129.898688525227</v>
+        <v>1186.86400985536</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I26" t="n">
-        <v>84.26999687024303</v>
+        <v>84.26999687024302</v>
       </c>
       <c r="J26" t="n">
-        <v>154.5142476835017</v>
+        <v>546.2434663911278</v>
       </c>
       <c r="K26" t="n">
-        <v>1018.952442686351</v>
+        <v>1410.681661393977</v>
       </c>
       <c r="L26" t="n">
-        <v>1926.475954046239</v>
+        <v>2318.205172753865</v>
       </c>
       <c r="M26" t="n">
-        <v>2833.999465406127</v>
+        <v>2486.730094287452</v>
       </c>
       <c r="N26" t="n">
-        <v>3245.817445886814</v>
+        <v>2658.731669100394</v>
       </c>
       <c r="O26" t="n">
-        <v>3406.066675639534</v>
+        <v>2818.980898853113</v>
       </c>
       <c r="P26" t="n">
-        <v>3537.229273096938</v>
+        <v>2950.143496310517</v>
       </c>
       <c r="Q26" t="n">
-        <v>3627.898850065089</v>
+        <v>3532.661980641403</v>
       </c>
       <c r="R26" t="n">
         <v>3666.761662060153</v>
@@ -6256,16 +6256,16 @@
         <v>3589.615628826114</v>
       </c>
       <c r="T26" t="n">
-        <v>3373.919287472868</v>
+        <v>3589.615628826114</v>
       </c>
       <c r="U26" t="n">
-        <v>3115.65994365881</v>
+        <v>3340.291921637341</v>
       </c>
       <c r="V26" t="n">
-        <v>2758.17052878506</v>
+        <v>2982.802506763591</v>
       </c>
       <c r="W26" t="n">
-        <v>2361.779179085407</v>
+        <v>2586.411157063937</v>
       </c>
       <c r="X26" t="n">
         <v>2174.691158231685</v>
@@ -6302,31 +6302,31 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I27" t="n">
-        <v>78.89251828763813</v>
+        <v>102.34982413205</v>
       </c>
       <c r="J27" t="n">
-        <v>117.6716127202101</v>
+        <v>433.231411034213</v>
       </c>
       <c r="K27" t="n">
-        <v>196.6514207665608</v>
+        <v>512.2112190805636</v>
       </c>
       <c r="L27" t="n">
-        <v>1104.174932126449</v>
+        <v>625.9367306502828</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.032731120464</v>
+        <v>761.7945296442983</v>
       </c>
       <c r="N27" t="n">
-        <v>1381.827686595163</v>
+        <v>903.5894851189967</v>
       </c>
       <c r="O27" t="n">
-        <v>1507.93165224162</v>
+        <v>1029.693450765454</v>
       </c>
       <c r="P27" t="n">
-        <v>1787.819132403364</v>
+        <v>1195.69858734959</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.263074882463</v>
+        <v>1739.807574597557</v>
       </c>
       <c r="R27" t="n">
         <v>1860.720626195892</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1135.10212421226</v>
+        <v>1014.605533153725</v>
       </c>
       <c r="C28" t="n">
-        <v>963.1295610911758</v>
+        <v>842.6329700326414</v>
       </c>
       <c r="D28" t="n">
-        <v>799.8127882179465</v>
+        <v>679.3161971594121</v>
       </c>
       <c r="E28" t="n">
-        <v>633.6045823708</v>
+        <v>513.1079913122657</v>
       </c>
       <c r="F28" t="n">
-        <v>461.7428081453604</v>
+        <v>341.2462170868261</v>
       </c>
       <c r="G28" t="n">
-        <v>296.0216813583482</v>
+        <v>175.5250902998138</v>
       </c>
       <c r="H28" t="n">
         <v>156.9895435441664</v>
@@ -6408,28 +6408,28 @@
         <v>2774.392262940933</v>
       </c>
       <c r="R28" t="n">
-        <v>2774.392262940933</v>
+        <v>2751.447095775065</v>
       </c>
       <c r="S28" t="n">
-        <v>2774.392262940933</v>
+        <v>2751.447095775065</v>
       </c>
       <c r="T28" t="n">
-        <v>2533.342425819698</v>
+        <v>2510.397258653829</v>
       </c>
       <c r="U28" t="n">
-        <v>2253.187205115571</v>
+        <v>2230.242037949702</v>
       </c>
       <c r="V28" t="n">
-        <v>1971.4757377236</v>
+        <v>1948.530570557731</v>
       </c>
       <c r="W28" t="n">
-        <v>1794.174757788778</v>
+        <v>1673.678166730244</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.610861234583</v>
+        <v>1431.114270176049</v>
       </c>
       <c r="Y28" t="n">
-        <v>1325.268092924325</v>
+        <v>1204.771501865791</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2036.507958114094</v>
+        <v>2060.264195559373</v>
       </c>
       <c r="C29" t="n">
-        <v>2036.507958114094</v>
+        <v>1633.363465572673</v>
       </c>
       <c r="D29" t="n">
-        <v>1613.215337299094</v>
+        <v>1210.070844757674</v>
       </c>
       <c r="E29" t="n">
-        <v>1187.238397446952</v>
+        <v>784.0939049055312</v>
       </c>
       <c r="F29" t="n">
-        <v>762.1142156363519</v>
+        <v>358.9697230949314</v>
       </c>
       <c r="G29" t="n">
         <v>358.9697230949314</v>
@@ -6460,31 +6460,31 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I29" t="n">
-        <v>84.26999687024303</v>
+        <v>84.26999687024302</v>
       </c>
       <c r="J29" t="n">
-        <v>154.5142476835017</v>
+        <v>154.5142476835016</v>
       </c>
       <c r="K29" t="n">
         <v>1018.952442686351</v>
       </c>
       <c r="L29" t="n">
-        <v>1926.475954046239</v>
+        <v>1165.784214816934</v>
       </c>
       <c r="M29" t="n">
-        <v>2338.293934526926</v>
+        <v>1334.309136350522</v>
       </c>
       <c r="N29" t="n">
-        <v>3245.817445886814</v>
+        <v>1506.310711163464</v>
       </c>
       <c r="O29" t="n">
-        <v>3406.066675639534</v>
+        <v>2016.500222648991</v>
       </c>
       <c r="P29" t="n">
-        <v>3537.229273096938</v>
+        <v>2893.141707456451</v>
       </c>
       <c r="Q29" t="n">
-        <v>3627.898850065089</v>
+        <v>3475.660191787338</v>
       </c>
       <c r="R29" t="n">
         <v>3666.761662060153</v>
@@ -6493,22 +6493,22 @@
         <v>3589.615628826114</v>
       </c>
       <c r="T29" t="n">
-        <v>3373.919287472868</v>
+        <v>3589.615628826114</v>
       </c>
       <c r="U29" t="n">
-        <v>3211.054641865207</v>
+        <v>3589.615628826114</v>
       </c>
       <c r="V29" t="n">
-        <v>2853.565226991456</v>
+        <v>3297.169828728266</v>
       </c>
       <c r="W29" t="n">
-        <v>2853.565226991456</v>
+        <v>3297.169828728266</v>
       </c>
       <c r="X29" t="n">
-        <v>2441.845228159204</v>
+        <v>2885.449829896013</v>
       </c>
       <c r="Y29" t="n">
-        <v>2036.507958114094</v>
+        <v>2480.112559850903</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I30" t="n">
-        <v>78.89251828763813</v>
+        <v>102.34982413205</v>
       </c>
       <c r="J30" t="n">
-        <v>117.6716127202101</v>
+        <v>433.231411034213</v>
       </c>
       <c r="K30" t="n">
-        <v>196.6514207665608</v>
+        <v>512.2112190805636</v>
       </c>
       <c r="L30" t="n">
-        <v>1104.174932126449</v>
+        <v>625.9367306502828</v>
       </c>
       <c r="M30" t="n">
-        <v>1421.852284593463</v>
+        <v>829.7317395396893</v>
       </c>
       <c r="N30" t="n">
-        <v>1563.647240068161</v>
+        <v>971.5266950143877</v>
       </c>
       <c r="O30" t="n">
-        <v>1689.751205714619</v>
+        <v>1097.630660660845</v>
       </c>
       <c r="P30" t="n">
-        <v>1787.819132403364</v>
+        <v>1195.69858734959</v>
       </c>
       <c r="Q30" t="n">
-        <v>1845.263074882463</v>
+        <v>1739.807574597557</v>
       </c>
       <c r="R30" t="n">
         <v>1860.720626195892</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>853.8087663569931</v>
+        <v>1051.447813909296</v>
       </c>
       <c r="C31" t="n">
-        <v>681.8362032359091</v>
+        <v>879.4752507882124</v>
       </c>
       <c r="D31" t="n">
-        <v>518.5194303626798</v>
+        <v>716.1584779149831</v>
       </c>
       <c r="E31" t="n">
-        <v>352.3112245155334</v>
+        <v>549.9502720678366</v>
       </c>
       <c r="F31" t="n">
-        <v>180.4494502900938</v>
+        <v>378.0884978423971</v>
       </c>
       <c r="G31" t="n">
-        <v>180.4494502900938</v>
+        <v>212.3673710553849</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9895435441664</v>
+        <v>73.33523324120306</v>
       </c>
       <c r="I31" t="n">
         <v>73.33523324120306</v>
@@ -6645,28 +6645,28 @@
         <v>2774.392262940933</v>
       </c>
       <c r="R31" t="n">
-        <v>2751.447095775065</v>
+        <v>2774.392262940933</v>
       </c>
       <c r="S31" t="n">
-        <v>2590.650328978332</v>
+        <v>2774.392262940933</v>
       </c>
       <c r="T31" t="n">
-        <v>2349.600491857097</v>
+        <v>2547.2395394094</v>
       </c>
       <c r="U31" t="n">
-        <v>2069.44527115297</v>
+        <v>2267.084318705273</v>
       </c>
       <c r="V31" t="n">
-        <v>1787.733803760999</v>
+        <v>1985.372851313302</v>
       </c>
       <c r="W31" t="n">
-        <v>1512.881399933512</v>
+        <v>1710.520447485815</v>
       </c>
       <c r="X31" t="n">
-        <v>1270.317503379317</v>
+        <v>1467.95655093162</v>
       </c>
       <c r="Y31" t="n">
-        <v>1043.974735069059</v>
+        <v>1241.613782621362</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2081.312534362967</v>
+        <v>1544.721910208045</v>
       </c>
       <c r="C32" t="n">
-        <v>1654.411804376267</v>
+        <v>1544.721910208045</v>
       </c>
       <c r="D32" t="n">
-        <v>1231.119183561268</v>
+        <v>1544.721910208045</v>
       </c>
       <c r="E32" t="n">
-        <v>805.1422437091252</v>
+        <v>1187.238397446952</v>
       </c>
       <c r="F32" t="n">
-        <v>380.0180618985254</v>
+        <v>762.1142156363519</v>
       </c>
       <c r="G32" t="n">
-        <v>73.33523324120306</v>
+        <v>358.9697230949314</v>
       </c>
       <c r="H32" t="n">
         <v>73.33523324120306</v>
       </c>
       <c r="I32" t="n">
-        <v>84.26999687024303</v>
+        <v>84.26999687024302</v>
       </c>
       <c r="J32" t="n">
-        <v>154.5142476835017</v>
+        <v>546.2434663911278</v>
       </c>
       <c r="K32" t="n">
-        <v>1018.952442686351</v>
+        <v>1410.681661393977</v>
       </c>
       <c r="L32" t="n">
-        <v>1926.475954046239</v>
+        <v>2261.203383899799</v>
       </c>
       <c r="M32" t="n">
-        <v>2326.541589466703</v>
+        <v>2429.728305433386</v>
       </c>
       <c r="N32" t="n">
-        <v>2498.543164279646</v>
+        <v>2601.729880246328</v>
       </c>
       <c r="O32" t="n">
-        <v>3406.066675639534</v>
+        <v>2761.979109999047</v>
       </c>
       <c r="P32" t="n">
-        <v>3537.229273096938</v>
+        <v>2893.141707456451</v>
       </c>
       <c r="Q32" t="n">
-        <v>3627.898850065089</v>
+        <v>3475.660191787338</v>
       </c>
       <c r="R32" t="n">
         <v>3666.761662060153</v>
       </c>
       <c r="S32" t="n">
-        <v>3666.761662060153</v>
+        <v>3589.615628826114</v>
       </c>
       <c r="T32" t="n">
-        <v>3666.761662060153</v>
+        <v>3373.919287472868</v>
       </c>
       <c r="U32" t="n">
-        <v>3666.761662060153</v>
+        <v>3115.65994365881</v>
       </c>
       <c r="V32" t="n">
-        <v>3309.272247186403</v>
+        <v>2758.17052878506</v>
       </c>
       <c r="W32" t="n">
-        <v>2912.88089748675</v>
+        <v>2361.779179085407</v>
       </c>
       <c r="X32" t="n">
-        <v>2501.160898654497</v>
+        <v>1950.059180253154</v>
       </c>
       <c r="Y32" t="n">
-        <v>2501.160898654497</v>
+        <v>1544.721910208045</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I33" t="n">
-        <v>78.89251828763813</v>
+        <v>102.34982413205</v>
       </c>
       <c r="J33" t="n">
-        <v>117.6716127202101</v>
+        <v>433.231411034213</v>
       </c>
       <c r="K33" t="n">
-        <v>196.6514207665608</v>
+        <v>512.2112190805636</v>
       </c>
       <c r="L33" t="n">
-        <v>310.3769323362799</v>
+        <v>625.9367306502828</v>
       </c>
       <c r="M33" t="n">
-        <v>1217.900443696168</v>
+        <v>829.7317395396893</v>
       </c>
       <c r="N33" t="n">
-        <v>1563.647240068161</v>
+        <v>971.5266950143877</v>
       </c>
       <c r="O33" t="n">
-        <v>1689.751205714619</v>
+        <v>1097.630660660845</v>
       </c>
       <c r="P33" t="n">
-        <v>1787.819132403364</v>
+        <v>1195.69858734959</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.263074882463</v>
+        <v>1739.807574597557</v>
       </c>
       <c r="R33" t="n">
         <v>1860.720626195892</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>853.8087663569931</v>
+        <v>1051.447813909296</v>
       </c>
       <c r="C34" t="n">
-        <v>681.8362032359091</v>
+        <v>879.4752507882124</v>
       </c>
       <c r="D34" t="n">
-        <v>518.5194303626798</v>
+        <v>716.1584779149831</v>
       </c>
       <c r="E34" t="n">
-        <v>352.3112245155334</v>
+        <v>549.9502720678366</v>
       </c>
       <c r="F34" t="n">
-        <v>296.0216813583482</v>
+        <v>378.0884978423971</v>
       </c>
       <c r="G34" t="n">
-        <v>296.0216813583482</v>
+        <v>212.3673710553849</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9895435441664</v>
+        <v>73.33523324120306</v>
       </c>
       <c r="I34" t="n">
         <v>73.33523324120306</v>
@@ -6882,28 +6882,28 @@
         <v>2774.392262940933</v>
       </c>
       <c r="R34" t="n">
-        <v>2751.447095775065</v>
+        <v>2774.392262940933</v>
       </c>
       <c r="S34" t="n">
-        <v>2590.650328978332</v>
+        <v>2613.5954961442</v>
       </c>
       <c r="T34" t="n">
-        <v>2349.600491857097</v>
+        <v>2547.2395394094</v>
       </c>
       <c r="U34" t="n">
-        <v>2069.44527115297</v>
+        <v>2267.084318705273</v>
       </c>
       <c r="V34" t="n">
-        <v>1787.733803760999</v>
+        <v>1985.372851313302</v>
       </c>
       <c r="W34" t="n">
-        <v>1512.881399933512</v>
+        <v>1710.520447485815</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.317503379317</v>
+        <v>1467.95655093162</v>
       </c>
       <c r="Y34" t="n">
-        <v>1043.974735069059</v>
+        <v>1241.613782621362</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>868.943219920817</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="C35" t="n">
-        <v>868.943219920817</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="D35" t="n">
-        <v>868.943219920817</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="E35" t="n">
-        <v>480.2477946616147</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="F35" t="n">
-        <v>55.1236128510149</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="G35" t="n">
         <v>55.1236128510149</v>
@@ -6934,31 +6934,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I35" t="n">
-        <v>66.05837648005487</v>
+        <v>66.05837648005486</v>
       </c>
       <c r="J35" t="n">
-        <v>136.3026272933135</v>
+        <v>528.0318460009396</v>
       </c>
       <c r="K35" t="n">
-        <v>249.8255595338026</v>
+        <v>652.7984806859015</v>
       </c>
       <c r="L35" t="n">
-        <v>396.6573316643861</v>
+        <v>799.630252816485</v>
       </c>
       <c r="M35" t="n">
-        <v>1078.812040695695</v>
+        <v>968.1551743500723</v>
       </c>
       <c r="N35" t="n">
-        <v>1760.966749727005</v>
+        <v>1140.156749163014</v>
       </c>
       <c r="O35" t="n">
-        <v>2443.121458758314</v>
+        <v>1300.405978915734</v>
       </c>
       <c r="P35" t="n">
-        <v>2626.648253587529</v>
+        <v>1982.560687947043</v>
       </c>
       <c r="Q35" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R35" t="n">
         <v>2756.180642550745</v>
@@ -6967,22 +6967,22 @@
         <v>2679.034609316706</v>
       </c>
       <c r="T35" t="n">
-        <v>2463.33826796346</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="U35" t="n">
-        <v>2463.33826796346</v>
+        <v>2420.775265502649</v>
       </c>
       <c r="V35" t="n">
-        <v>2105.848853089709</v>
+        <v>2063.285850628899</v>
       </c>
       <c r="W35" t="n">
-        <v>2105.848853089709</v>
+        <v>1666.894500929245</v>
       </c>
       <c r="X35" t="n">
-        <v>1694.128854257457</v>
+        <v>1255.174502096993</v>
       </c>
       <c r="Y35" t="n">
-        <v>1288.791584212347</v>
+        <v>878.1164696839654</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I36" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J36" t="n">
-        <v>99.45999233002198</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K36" t="n">
-        <v>781.6147013613313</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L36" t="n">
-        <v>895.3402129310505</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M36" t="n">
-        <v>1031.198011925066</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N36" t="n">
-        <v>1172.992967399764</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O36" t="n">
-        <v>1299.096933046222</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P36" t="n">
-        <v>1769.607512013175</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q36" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R36" t="n">
         <v>1842.509005805703</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1116.890503822072</v>
+        <v>858.5423131326734</v>
       </c>
       <c r="C37" t="n">
-        <v>944.9179407009876</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="D37" t="n">
-        <v>781.6011678277583</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="E37" t="n">
-        <v>615.3929619806119</v>
+        <v>520.3615441644429</v>
       </c>
       <c r="F37" t="n">
-        <v>443.5311877551723</v>
+        <v>348.4997699390033</v>
       </c>
       <c r="G37" t="n">
         <v>277.81006096816</v>
@@ -7095,16 +7095,16 @@
         <v>55.1236128510149</v>
       </c>
       <c r="J37" t="n">
-        <v>149.7451419535122</v>
+        <v>149.7451419535123</v>
       </c>
       <c r="K37" t="n">
-        <v>437.289069149471</v>
+        <v>437.2890691494713</v>
       </c>
       <c r="L37" t="n">
-        <v>870.0582805254605</v>
+        <v>870.058280525461</v>
       </c>
       <c r="M37" t="n">
-        <v>1343.568371978314</v>
+        <v>1343.568371978315</v>
       </c>
       <c r="N37" t="n">
         <v>1801.426691570447</v>
@@ -7119,28 +7119,28 @@
         <v>2756.180642550745</v>
       </c>
       <c r="R37" t="n">
-        <v>2733.235475384876</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S37" t="n">
-        <v>2572.438708588144</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T37" t="n">
-        <v>2332.527008618048</v>
+        <v>2354.334038632777</v>
       </c>
       <c r="U37" t="n">
-        <v>2332.527008618048</v>
+        <v>2074.17881792865</v>
       </c>
       <c r="V37" t="n">
-        <v>2050.815541226077</v>
+        <v>1792.467350536679</v>
       </c>
       <c r="W37" t="n">
-        <v>1775.96313739859</v>
+        <v>1517.614946709192</v>
       </c>
       <c r="X37" t="n">
-        <v>1533.399240844395</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y37" t="n">
-        <v>1307.056472534137</v>
+        <v>1048.708281844739</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>291.4385596411454</v>
+        <v>767.6588326914432</v>
       </c>
       <c r="C38" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="D38" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="E38" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="F38" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="G38" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="H38" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="I38" t="n">
-        <v>66.05837648005487</v>
+        <v>66.05837648005486</v>
       </c>
       <c r="J38" t="n">
-        <v>528.0318460009397</v>
+        <v>528.0318460009396</v>
       </c>
       <c r="K38" t="n">
-        <v>1203.790592259807</v>
+        <v>641.5547782414286</v>
       </c>
       <c r="L38" t="n">
-        <v>1350.62236439039</v>
+        <v>788.3865503720122</v>
       </c>
       <c r="M38" t="n">
-        <v>1519.147285923978</v>
+        <v>956.9114719055995</v>
       </c>
       <c r="N38" t="n">
-        <v>1691.14886073692</v>
+        <v>1128.913046718542</v>
       </c>
       <c r="O38" t="n">
-        <v>1851.398090489639</v>
+        <v>1300.405978915734</v>
       </c>
       <c r="P38" t="n">
         <v>1982.560687947043</v>
@@ -7201,25 +7201,25 @@
         <v>2756.180642550745</v>
       </c>
       <c r="S38" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T38" t="n">
-        <v>2540.484301197499</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="U38" t="n">
-        <v>2282.224957383442</v>
+        <v>2205.078924149402</v>
       </c>
       <c r="V38" t="n">
-        <v>1924.735542509691</v>
+        <v>1847.589509275652</v>
       </c>
       <c r="W38" t="n">
-        <v>1528.344192810038</v>
+        <v>1451.198159575998</v>
       </c>
       <c r="X38" t="n">
-        <v>1116.624193977785</v>
+        <v>1172.996102736553</v>
       </c>
       <c r="Y38" t="n">
-        <v>711.2869239326754</v>
+        <v>767.6588326914432</v>
       </c>
     </row>
     <row r="39">
@@ -7256,13 +7256,13 @@
         <v>415.0197906440249</v>
       </c>
       <c r="K39" t="n">
-        <v>493.9995986903755</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L39" t="n">
-        <v>607.7251102600947</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M39" t="n">
-        <v>743.5829092541102</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N39" t="n">
         <v>953.3150746241994</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>835.5971459668049</v>
+        <v>894.2040557049265</v>
       </c>
       <c r="C40" t="n">
-        <v>663.6245828457209</v>
+        <v>722.2314925838425</v>
       </c>
       <c r="D40" t="n">
-        <v>500.3078099724916</v>
+        <v>558.9147197106132</v>
       </c>
       <c r="E40" t="n">
-        <v>334.0996041253451</v>
+        <v>392.7065138634667</v>
       </c>
       <c r="F40" t="n">
-        <v>162.2378298999055</v>
+        <v>220.8447396380271</v>
       </c>
       <c r="G40" t="n">
-        <v>138.7779231539782</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="H40" t="n">
-        <v>138.7779231539782</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="I40" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="J40" t="n">
-        <v>149.7451419535123</v>
+        <v>149.7451419535122</v>
       </c>
       <c r="K40" t="n">
-        <v>437.2890691494712</v>
+        <v>437.289069149471</v>
       </c>
       <c r="L40" t="n">
-        <v>870.0582805254608</v>
+        <v>870.0582805254605</v>
       </c>
       <c r="M40" t="n">
-        <v>1343.568371978315</v>
+        <v>1343.568371978314</v>
       </c>
       <c r="N40" t="n">
         <v>1801.426691570447</v>
@@ -7356,28 +7356,28 @@
         <v>2756.180642550745</v>
       </c>
       <c r="R40" t="n">
-        <v>2733.235475384876</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S40" t="n">
-        <v>2572.438708588144</v>
+        <v>2631.045618326265</v>
       </c>
       <c r="T40" t="n">
-        <v>2331.388871466909</v>
+        <v>2389.99578120503</v>
       </c>
       <c r="U40" t="n">
-        <v>2051.233650762782</v>
+        <v>2109.840560500903</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.52218337081</v>
+        <v>1828.129093108932</v>
       </c>
       <c r="W40" t="n">
-        <v>1494.669779543323</v>
+        <v>1553.276689281445</v>
       </c>
       <c r="X40" t="n">
-        <v>1252.105882989129</v>
+        <v>1310.71279272725</v>
       </c>
       <c r="Y40" t="n">
-        <v>1025.763114678871</v>
+        <v>1084.370024416992</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2159.562577856877</v>
+        <v>1308.461456194135</v>
       </c>
       <c r="C41" t="n">
-        <v>1732.661847870177</v>
+        <v>881.5607262074351</v>
       </c>
       <c r="D41" t="n">
-        <v>1309.369227055178</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="E41" t="n">
-        <v>883.3922872030352</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="F41" t="n">
         <v>458.2681053924354</v>
@@ -7408,28 +7408,28 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I41" t="n">
-        <v>66.05837648005487</v>
+        <v>66.05837648005486</v>
       </c>
       <c r="J41" t="n">
-        <v>136.3026272933135</v>
+        <v>478.1618536905065</v>
       </c>
       <c r="K41" t="n">
-        <v>249.8255595338026</v>
+        <v>1160.316562721816</v>
       </c>
       <c r="L41" t="n">
-        <v>396.6573316643861</v>
+        <v>1842.471271753125</v>
       </c>
       <c r="M41" t="n">
-        <v>565.1822531979734</v>
+        <v>2010.996193286713</v>
       </c>
       <c r="N41" t="n">
-        <v>737.1838280109155</v>
+        <v>2182.997768099655</v>
       </c>
       <c r="O41" t="n">
-        <v>1419.338537042225</v>
+        <v>2343.246997852374</v>
       </c>
       <c r="P41" t="n">
-        <v>1982.560687947043</v>
+        <v>2474.409595309778</v>
       </c>
       <c r="Q41" t="n">
         <v>2565.07917227793</v>
@@ -7438,25 +7438,25 @@
         <v>2756.180642550745</v>
       </c>
       <c r="S41" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T41" t="n">
-        <v>2756.180642550745</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="U41" t="n">
-        <v>2555.95392755653</v>
+        <v>2205.078924149402</v>
       </c>
       <c r="V41" t="n">
-        <v>2555.95392755653</v>
+        <v>1847.589509275652</v>
       </c>
       <c r="W41" t="n">
-        <v>2159.562577856877</v>
+        <v>1713.798726239245</v>
       </c>
       <c r="X41" t="n">
-        <v>2159.562577856877</v>
+        <v>1713.798726239245</v>
       </c>
       <c r="Y41" t="n">
-        <v>2159.562577856877</v>
+        <v>1308.461456194135</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I42" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J42" t="n">
-        <v>391.562484799613</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K42" t="n">
-        <v>470.5422928459636</v>
+        <v>493.9995986903755</v>
       </c>
       <c r="L42" t="n">
-        <v>584.2678044156828</v>
+        <v>607.7251102600947</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1256034096983</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N42" t="n">
-        <v>861.9205588843967</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O42" t="n">
-        <v>988.024524530854</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P42" t="n">
-        <v>1282.942467244307</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q42" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R42" t="n">
         <v>1842.509005805703</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5971459668049</v>
+        <v>858.5423131326734</v>
       </c>
       <c r="C43" t="n">
-        <v>663.6245828457209</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="D43" t="n">
-        <v>500.3078099724916</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="E43" t="n">
-        <v>500.3078099724916</v>
+        <v>615.3929619806119</v>
       </c>
       <c r="F43" t="n">
         <v>443.5311877551723</v>
@@ -7569,16 +7569,16 @@
         <v>55.1236128510149</v>
       </c>
       <c r="J43" t="n">
-        <v>149.7451419535122</v>
+        <v>149.7451419535123</v>
       </c>
       <c r="K43" t="n">
-        <v>437.289069149471</v>
+        <v>437.2890691494712</v>
       </c>
       <c r="L43" t="n">
-        <v>870.0582805254605</v>
+        <v>870.0582805254608</v>
       </c>
       <c r="M43" t="n">
-        <v>1343.568371978314</v>
+        <v>1343.568371978315</v>
       </c>
       <c r="N43" t="n">
         <v>1801.426691570447</v>
@@ -7593,28 +7593,28 @@
         <v>2756.180642550745</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.235475384876</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S43" t="n">
-        <v>2572.438708588144</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T43" t="n">
-        <v>2331.388871466909</v>
+        <v>2354.334038632777</v>
       </c>
       <c r="U43" t="n">
-        <v>2051.233650762782</v>
+        <v>2074.17881792865</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.52218337081</v>
+        <v>1792.467350536679</v>
       </c>
       <c r="W43" t="n">
-        <v>1494.669779543323</v>
+        <v>1517.614946709192</v>
       </c>
       <c r="X43" t="n">
-        <v>1252.105882989129</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y43" t="n">
-        <v>1025.763114678871</v>
+        <v>1048.708281844739</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1331.293903504857</v>
+        <v>881.5607262074351</v>
       </c>
       <c r="C44" t="n">
-        <v>904.393173518157</v>
+        <v>881.5607262074351</v>
       </c>
       <c r="D44" t="n">
-        <v>481.1005527031573</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="E44" t="n">
-        <v>55.1236128510149</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="F44" t="n">
-        <v>55.1236128510149</v>
+        <v>458.2681053924354</v>
       </c>
       <c r="G44" t="n">
         <v>55.1236128510149</v>
@@ -7645,28 +7645,28 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I44" t="n">
-        <v>66.05837648005487</v>
+        <v>66.05837648005486</v>
       </c>
       <c r="J44" t="n">
-        <v>136.3026272933135</v>
+        <v>528.0318460009396</v>
       </c>
       <c r="K44" t="n">
-        <v>249.8255595338026</v>
+        <v>1210.186555032249</v>
       </c>
       <c r="L44" t="n">
-        <v>396.6573316643861</v>
+        <v>1842.471271753125</v>
       </c>
       <c r="M44" t="n">
-        <v>1078.812040695695</v>
+        <v>2010.996193286713</v>
       </c>
       <c r="N44" t="n">
-        <v>1250.813615508638</v>
+        <v>2182.997768099655</v>
       </c>
       <c r="O44" t="n">
-        <v>1411.062845261357</v>
+        <v>2343.246997852374</v>
       </c>
       <c r="P44" t="n">
-        <v>1982.560687947043</v>
+        <v>2474.409595309778</v>
       </c>
       <c r="Q44" t="n">
         <v>2565.07917227793</v>
@@ -7678,22 +7678,22 @@
         <v>2679.034609316706</v>
       </c>
       <c r="T44" t="n">
-        <v>2679.034609316706</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="U44" t="n">
-        <v>2568.199536673749</v>
+        <v>2205.078924149402</v>
       </c>
       <c r="V44" t="n">
-        <v>2568.199536673749</v>
+        <v>1847.589509275652</v>
       </c>
       <c r="W44" t="n">
-        <v>2568.199536673749</v>
+        <v>1451.198159575998</v>
       </c>
       <c r="X44" t="n">
-        <v>2156.479537841496</v>
+        <v>1451.198159575998</v>
       </c>
       <c r="Y44" t="n">
-        <v>1751.142267796387</v>
+        <v>1045.860889530889</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>84.13820374186182</v>
       </c>
       <c r="J45" t="n">
-        <v>122.9172981744338</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K45" t="n">
-        <v>201.8971062207845</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L45" t="n">
-        <v>315.6226177905036</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M45" t="n">
-        <v>451.4804167845192</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.635125815829</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O45" t="n">
-        <v>1671.53958532443</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P45" t="n">
-        <v>1769.607512013175</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q45" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R45" t="n">
         <v>1842.509005805703</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1116.890503822072</v>
+        <v>858.5423131326734</v>
       </c>
       <c r="C46" t="n">
-        <v>944.9179407009876</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="D46" t="n">
-        <v>781.6011678277583</v>
+        <v>523.2529771383601</v>
       </c>
       <c r="E46" t="n">
-        <v>615.3929619806119</v>
+        <v>357.0447712912136</v>
       </c>
       <c r="F46" t="n">
-        <v>443.5311877551723</v>
+        <v>185.182997065774</v>
       </c>
       <c r="G46" t="n">
-        <v>277.81006096816</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="H46" t="n">
-        <v>138.7779231539782</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="I46" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="J46" t="n">
-        <v>149.7451419535119</v>
+        <v>149.7451419535122</v>
       </c>
       <c r="K46" t="n">
-        <v>437.2890691494707</v>
+        <v>437.289069149471</v>
       </c>
       <c r="L46" t="n">
-        <v>870.0582805254603</v>
+        <v>870.0582805254605</v>
       </c>
       <c r="M46" t="n">
         <v>1343.568371978314</v>
@@ -7830,28 +7830,28 @@
         <v>2756.180642550745</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.235475384876</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S46" t="n">
-        <v>2572.438708588144</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T46" t="n">
-        <v>2572.438708588144</v>
+        <v>2354.334038632777</v>
       </c>
       <c r="U46" t="n">
-        <v>2332.527008618048</v>
+        <v>2074.17881792865</v>
       </c>
       <c r="V46" t="n">
-        <v>2050.815541226077</v>
+        <v>1792.467350536679</v>
       </c>
       <c r="W46" t="n">
-        <v>1775.96313739859</v>
+        <v>1517.614946709192</v>
       </c>
       <c r="X46" t="n">
-        <v>1533.399240844395</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y46" t="n">
-        <v>1307.056472534137</v>
+        <v>1048.708281844739</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>456.5787613602907</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,10 +7996,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8060,7 +8060,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
@@ -8072,7 +8072,7 @@
         <v>99.28895563385618</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
         <v>483.1707469651629</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>455.6196014764236</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>113.9226282079388</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>100.3451612536475</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>456.5786519614261</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8388,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>136.4406355808522</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>115.5109099618853</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>362.0008377727922</v>
       </c>
       <c r="O8" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>458.4075134701064</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>99.71676862514295</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.327324507274</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>30.98085653414905</v>
+        <v>27.18472436126494</v>
       </c>
       <c r="L11" t="n">
         <v>540.7302392936624</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>527.1772517965557</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>68.62344433877865</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>545.8179328854657</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>144.6013204413789</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>567.9149636549276</v>
       </c>
       <c r="L14" t="n">
-        <v>540.7302392936624</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>518.8179671694162</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.3401411612889</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>551.8150606437312</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>433.6572153796703</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>68.6234443387786</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>42.00181003245268</v>
       </c>
       <c r="M17" t="n">
         <v>518.8179671694162</v>
       </c>
       <c r="N17" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>83.25330231077416</v>
+        <v>556.5576884584905</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9242,16 +9242,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>609.2675767524836</v>
       </c>
       <c r="L18" t="n">
-        <v>574.1709065268587</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>411.3013694965426</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>81.15167657436095</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>574.3755321119397</v>
       </c>
       <c r="L20" t="n">
         <v>540.7302392936624</v>
       </c>
       <c r="M20" t="n">
-        <v>518.8179671694162</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>39.3401411612889</v>
+        <v>499.0887723989343</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>92.31769266646742</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>68.6234443387786</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>63.83444891585424</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>71.57059871741072</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,10 +9883,10 @@
         <v>768.3754941710145</v>
       </c>
       <c r="M26" t="n">
-        <v>746.4632220467682</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>242.2387936037835</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>96.19885800372288</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>801.8161614042108</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>183.6561146191905</v>
+        <v>68.6234443387786</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>768.3754941710145</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>245.7505645930308</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>742.9514510575209</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>353.4750320533412</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>801.8161614042108</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>183.6561146191907</v>
+        <v>68.6234443387788</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>768.3754941710145</v>
+        <v>710.7979296719577</v>
       </c>
       <c r="M32" t="n">
-        <v>233.8795089766439</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>754.8225066739077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>779.4603155210832</v>
+        <v>68.6234443387788</v>
       </c>
       <c r="N33" t="n">
-        <v>206.0119605023183</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>11.35727519643724</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>518.8179671694162</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>527.1772517965557</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>52.89312865839548</v>
+        <v>556.5576884584905</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>609.2675767524836</v>
+        <v>68.62344433877868</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>376.2046992709176</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>567.9149636549275</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>11.35727519643717</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.5576884584905</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10904,7 +10904,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>68.62344433877868</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>68.62344433877868</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>345.3123498961546</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>574.3755321119397</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>540.7302392936624</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>527.1772517965557</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>436.4237913610247</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>68.62344433877868</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8384000249578</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>574.3755321119397</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>490.3565096871644</v>
       </c>
       <c r="M44" t="n">
-        <v>518.8179671694162</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>444.7830759881639</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>68.62344433877868</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>545.8179328854657</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>415.9600948102469</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517229</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>75.06197676891713</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.8175827466193</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.9343004880391</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.84108552669139</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>238.6393387500226</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>234.7716451742682</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>367.9966795393053</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>399.1130476160062</v>
       </c>
       <c r="H14" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>213.5393779397139</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>91.21858499382928</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>22.71571549420977</v>
       </c>
       <c r="S16" t="n">
-        <v>17.12537003248158</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>238.6393387500226</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>234.7716451742683</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>234.7716451742682</v>
       </c>
       <c r="G17" t="n">
         <v>399.1130476160062</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>35.30512514653063</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>238.6393387500226</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>39.84108552669144</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.5393779397139</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6767503759167</v>
+        <v>165.5390711072247</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>234.771645174268</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>238.6393387500226</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>17.12537003248161</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.21611525176951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H25" t="n">
-        <v>137.64181643604</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S25" t="n">
-        <v>58.02084064074013</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>91.70079326336193</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.846280259031488</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>222.3856581987451</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>119.291625147949</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>159.1887991287653</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>96.57590965373859</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>399.1130476160062</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U29" t="n">
-        <v>94.44075122433202</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>64.39317862814312</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.0639155191421</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.4165087575718</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>159.1887991287653</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>13.75814245380502</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>67.80849282013884</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>95.49704724525714</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>114.4165087575719</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.0639155191421</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>172.9469415825704</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>36.90869944701075</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>399.1130476160062</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>282.778144955191</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>27.99644525576161</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>94.08110363800728</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.126755779628098</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3536684970859</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>188.6799253646037</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25408,7 +25408,7 @@
         <v>399.1130476160062</v>
       </c>
       <c r="H38" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>132.1827625728792</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>140.8386078406741</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>137.64181643604</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>35.30512514653033</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>57.45230253164434</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>259.9745609966139</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>94.08110363800726</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9343004880391</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>252.9927189583954</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.1130476160062</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>282.778144955191</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>145.9500284593896</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>35.30512514653057</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>22.71571549420977</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>238.6393387500226</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.84108552669144</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501106.3530960579</v>
+        <v>501106.353096058</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>596362.6896652482</v>
+        <v>596362.689665248</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>596362.6896652478</v>
+        <v>596362.6896652482</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>596362.6896652479</v>
+        <v>596362.6896652482</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501106.353096058</v>
+        <v>501106.3530960579</v>
       </c>
     </row>
     <row r="16">
@@ -26319,37 +26319,37 @@
         <v>364026.6675069772</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069772</v>
+        <v>364026.6675069773</v>
       </c>
       <c r="E2" t="n">
         <v>249971.8352222755</v>
       </c>
       <c r="F2" t="n">
-        <v>249971.8352222756</v>
+        <v>249971.8352222757</v>
       </c>
       <c r="G2" t="n">
-        <v>249971.8352222757</v>
+        <v>249971.8352222755</v>
       </c>
       <c r="H2" t="n">
-        <v>249971.8352222756</v>
+        <v>249971.8352222758</v>
       </c>
       <c r="I2" t="n">
-        <v>359849.4611428265</v>
+        <v>359849.4611428267</v>
       </c>
       <c r="J2" t="n">
-        <v>293923.2590523951</v>
+        <v>293923.2590523955</v>
       </c>
       <c r="K2" t="n">
-        <v>293923.2590523952</v>
+        <v>293923.2590523957</v>
       </c>
       <c r="L2" t="n">
         <v>293923.2590523954</v>
       </c>
       <c r="M2" t="n">
+        <v>249971.8352222755</v>
+      </c>
+      <c r="N2" t="n">
         <v>249971.8352222756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>249971.8352222755</v>
       </c>
       <c r="O2" t="n">
         <v>249971.8352222757</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151337.8486040735</v>
+        <v>151337.8486040736</v>
       </c>
       <c r="J3" t="n">
-        <v>31380.75961069972</v>
+        <v>31380.7596106997</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230061.7875075232</v>
+        <v>230061.7875075233</v>
       </c>
       <c r="C4" t="n">
-        <v>230061.7875075232</v>
+        <v>230061.7875075233</v>
       </c>
       <c r="D4" t="n">
         <v>230061.7875075233</v>
@@ -26429,7 +26429,7 @@
         <v>51695.85977011043</v>
       </c>
       <c r="F4" t="n">
-        <v>51695.85977011044</v>
+        <v>51695.85977011043</v>
       </c>
       <c r="G4" t="n">
         <v>51695.85977011044</v>
@@ -26441,22 +26441,22 @@
         <v>92324.01162564311</v>
       </c>
       <c r="J4" t="n">
-        <v>67947.25860291858</v>
+        <v>67947.25860291859</v>
       </c>
       <c r="K4" t="n">
-        <v>67947.25860291858</v>
+        <v>67947.25860291859</v>
       </c>
       <c r="L4" t="n">
         <v>67947.25860291859</v>
       </c>
       <c r="M4" t="n">
+        <v>51695.85977011043</v>
+      </c>
+      <c r="N4" t="n">
         <v>51695.85977011044</v>
       </c>
-      <c r="N4" t="n">
-        <v>51695.85977011043</v>
-      </c>
       <c r="O4" t="n">
-        <v>51695.85977011043</v>
+        <v>51695.85977011042</v>
       </c>
       <c r="P4" t="n">
         <v>51695.85977011043</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82341.5548888949</v>
+        <v>-82341.55488889499</v>
       </c>
       <c r="C6" t="n">
-        <v>72284.16572922567</v>
+        <v>72284.16572922558</v>
       </c>
       <c r="D6" t="n">
-        <v>72284.16572922558</v>
+        <v>72284.16572922564</v>
       </c>
       <c r="E6" t="n">
-        <v>-154344.2072885438</v>
+        <v>-154800.4266176826</v>
       </c>
       <c r="F6" t="n">
-        <v>149968.9544651425</v>
+        <v>149512.7351360038</v>
       </c>
       <c r="G6" t="n">
-        <v>149968.9544651426</v>
+        <v>149512.7351360036</v>
       </c>
       <c r="H6" t="n">
-        <v>149968.9544651425</v>
+        <v>149512.7351360038</v>
       </c>
       <c r="I6" t="n">
-        <v>33278.79520382883</v>
+        <v>33262.08637837235</v>
       </c>
       <c r="J6" t="n">
-        <v>132447.3883552112</v>
+        <v>132166.9747213932</v>
       </c>
       <c r="K6" t="n">
-        <v>163828.147965911</v>
+        <v>163547.7343320931</v>
       </c>
       <c r="L6" t="n">
-        <v>163828.1479659111</v>
+        <v>163547.7343320928</v>
       </c>
       <c r="M6" t="n">
-        <v>149968.9544651425</v>
+        <v>149512.7351360037</v>
       </c>
       <c r="N6" t="n">
-        <v>149968.9544651425</v>
+        <v>149512.7351360037</v>
       </c>
       <c r="O6" t="n">
-        <v>149968.9544651427</v>
+        <v>149512.7351360038</v>
       </c>
       <c r="P6" t="n">
-        <v>149968.9544651426</v>
+        <v>149512.7351360038</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>294.1777623968496</v>
       </c>
       <c r="I3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
       <c r="J3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
       <c r="K3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
       <c r="L3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
       <c r="M3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
       <c r="N3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
       <c r="O3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
       <c r="P3" t="n">
-        <v>294.1777623968497</v>
+        <v>294.1777623968496</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.1083013529339</v>
+        <v>569.1083013529341</v>
       </c>
       <c r="J4" t="n">
         <v>119.9368592847522</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27438,16 +27438,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>264.8549790164113</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>351.274240559002</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>95.98557788077474</v>
+        <v>116.749454805588</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>353.0609246327053</v>
+        <v>56.38454581829626</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.4907749403026</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>171.5341982335092</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>353.0609246327052</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>353.0609246327054</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>11.77338284989949</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,10 +28067,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>261.7358484652598</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -32712,10 +32712,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K23" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L23" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M23" t="n">
         <v>207.6584563677018</v>
@@ -32733,16 +32733,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R23" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S23" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T23" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H24" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I24" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J24" t="n">
         <v>59.78191679047679</v>
@@ -32797,7 +32797,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M24" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N24" t="n">
         <v>164.5702559657622</v>
@@ -32809,19 +32809,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R24" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S24" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T24" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H25" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I25" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J25" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K25" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L25" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M25" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N25" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O25" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P25" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q25" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R25" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S25" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T25" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,10 +32949,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K26" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L26" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M26" t="n">
         <v>207.6584563677018</v>
@@ -32970,16 +32970,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R26" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S26" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T26" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H27" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I27" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J27" t="n">
         <v>59.78191679047679</v>
@@ -33034,7 +33034,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M27" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N27" t="n">
         <v>164.5702559657622</v>
@@ -33046,19 +33046,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q27" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R27" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S27" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T27" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H28" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I28" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J28" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K28" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L28" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M28" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N28" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O28" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P28" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q28" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R28" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S28" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T28" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,10 +33186,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K29" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L29" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M29" t="n">
         <v>207.6584563677018</v>
@@ -33207,16 +33207,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R29" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S29" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T29" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H30" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I30" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J30" t="n">
         <v>59.78191679047679</v>
@@ -33271,7 +33271,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M30" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N30" t="n">
         <v>164.5702559657622</v>
@@ -33283,19 +33283,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q30" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R30" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S30" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T30" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H31" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I31" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J31" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K31" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L31" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M31" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N31" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O31" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P31" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q31" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R31" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S31" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T31" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,10 +33423,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K32" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L32" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M32" t="n">
         <v>207.6584563677018</v>
@@ -33444,16 +33444,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R32" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S32" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T32" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H33" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I33" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J33" t="n">
         <v>59.78191679047679</v>
@@ -33508,7 +33508,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M33" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N33" t="n">
         <v>164.5702559657622</v>
@@ -33520,19 +33520,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q33" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R33" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S33" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T33" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H34" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I34" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J34" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K34" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L34" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M34" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N34" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O34" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P34" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q34" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R34" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S34" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T34" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,10 +33660,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K35" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L35" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M35" t="n">
         <v>207.6584563677018</v>
@@ -33681,16 +33681,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R35" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S35" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T35" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H36" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I36" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J36" t="n">
         <v>59.78191679047679</v>
@@ -33745,7 +33745,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M36" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N36" t="n">
         <v>164.5702559657622</v>
@@ -33757,19 +33757,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q36" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R36" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S36" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T36" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H37" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I37" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J37" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K37" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L37" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M37" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N37" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O37" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P37" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q37" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R37" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S37" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T37" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,10 +33897,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K38" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L38" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M38" t="n">
         <v>207.6584563677018</v>
@@ -33918,16 +33918,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R38" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S38" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T38" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H39" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I39" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J39" t="n">
         <v>59.78191679047679</v>
@@ -33982,7 +33982,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M39" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N39" t="n">
         <v>164.5702559657622</v>
@@ -33994,19 +33994,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q39" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R39" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S39" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T39" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H40" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I40" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J40" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K40" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L40" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M40" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N40" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O40" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P40" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q40" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R40" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S40" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T40" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34134,10 +34134,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K41" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L41" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M41" t="n">
         <v>207.6584563677018</v>
@@ -34155,16 +34155,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R41" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S41" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T41" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H42" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I42" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J42" t="n">
         <v>59.78191679047679</v>
@@ -34219,7 +34219,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M42" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N42" t="n">
         <v>164.5702559657622</v>
@@ -34231,19 +34231,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R42" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S42" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T42" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H43" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I43" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J43" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K43" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L43" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M43" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N43" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O43" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P43" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q43" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R43" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S43" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T43" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34371,10 +34371,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K44" t="n">
-        <v>150.4342293205559</v>
+        <v>150.4342293205558</v>
       </c>
       <c r="L44" t="n">
-        <v>186.6269637766467</v>
+        <v>186.6269637766466</v>
       </c>
       <c r="M44" t="n">
         <v>207.6584563677018</v>
@@ -34392,16 +34392,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R44" t="n">
-        <v>74.28801554637633</v>
+        <v>74.28801554637631</v>
       </c>
       <c r="S44" t="n">
-        <v>26.94904828389232</v>
+        <v>26.94904828389231</v>
       </c>
       <c r="T44" t="n">
-        <v>5.176937306099333</v>
+        <v>5.176937306099332</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09460993363516765</v>
+        <v>0.09460993363516763</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6327597153441673</v>
+        <v>0.6327597153441672</v>
       </c>
       <c r="H45" t="n">
-        <v>6.111126724508143</v>
+        <v>6.111126724508142</v>
       </c>
       <c r="I45" t="n">
-        <v>21.78580598882331</v>
+        <v>21.7858059888233</v>
       </c>
       <c r="J45" t="n">
         <v>59.78191679047679</v>
@@ -34456,7 +34456,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M45" t="n">
-        <v>160.3268805062831</v>
+        <v>160.326880506283</v>
       </c>
       <c r="N45" t="n">
         <v>164.5702559657622</v>
@@ -34468,19 +34468,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q45" t="n">
-        <v>80.77122261130108</v>
+        <v>80.77122261130106</v>
       </c>
       <c r="R45" t="n">
-        <v>39.28660758952647</v>
+        <v>39.28660758952646</v>
       </c>
       <c r="S45" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T45" t="n">
-        <v>2.550465694742498</v>
+        <v>2.550465694742497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04162892864106366</v>
+        <v>0.04162892864106364</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5304844895680896</v>
+        <v>0.5304844895680895</v>
       </c>
       <c r="H46" t="n">
-        <v>4.716489370887199</v>
+        <v>4.716489370887198</v>
       </c>
       <c r="I46" t="n">
-        <v>15.9531153771931</v>
+        <v>15.95311537719309</v>
       </c>
       <c r="J46" t="n">
-        <v>37.50525341246393</v>
+        <v>37.50525341246392</v>
       </c>
       <c r="K46" t="n">
-        <v>61.63265251527439</v>
+        <v>61.63265251527438</v>
       </c>
       <c r="L46" t="n">
-        <v>78.86857583996853</v>
+        <v>78.86857583996851</v>
       </c>
       <c r="M46" t="n">
-        <v>83.15585503293242</v>
+        <v>83.15585503293241</v>
       </c>
       <c r="N46" t="n">
-        <v>81.17859466272417</v>
+        <v>81.17859466272414</v>
       </c>
       <c r="O46" t="n">
-        <v>74.98157130731508</v>
+        <v>74.98157130731506</v>
       </c>
       <c r="P46" t="n">
-        <v>64.159687720126</v>
+        <v>64.15968772012599</v>
       </c>
       <c r="Q46" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R46" t="n">
-        <v>23.85251168548882</v>
+        <v>23.85251168548881</v>
       </c>
       <c r="S46" t="n">
-        <v>9.244897877291157</v>
+        <v>9.244897877291155</v>
       </c>
       <c r="T46" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02893551761280492</v>
+        <v>0.02893551761280491</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L2" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>419.1474984608589</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34780,7 +34780,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>461.3999057603342</v>
@@ -34792,7 +34792,7 @@
         <v>77.9459274203145</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P3" t="n">
         <v>461.3999057603342</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>77.94592742031416</v>
+      </c>
+      <c r="L6" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>435.2356237478844</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35108,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>111.8210728160673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>77.19886752926237</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="O8" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
+        <v>77.94592742031428</v>
+      </c>
+      <c r="Q9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N9" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O9" t="n">
-        <v>435.2356237478842</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.69056852337214</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J11" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K11" t="n">
-        <v>145.6504850598956</v>
+        <v>141.8543528870115</v>
       </c>
       <c r="L11" t="n">
         <v>689.0451606376862</v>
@@ -35421,19 +35421,19 @@
         <v>170.22719346827</v>
       </c>
       <c r="N11" t="n">
-        <v>689.0451606376862</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O11" t="n">
-        <v>689.0451606376862</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P11" t="n">
         <v>132.4874721791957</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R11" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J12" t="n">
         <v>334.2238251537001</v>
       </c>
       <c r="K12" t="n">
-        <v>79.77758388520266</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L12" t="n">
         <v>114.8742541108275</v>
@@ -35500,19 +35500,19 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N12" t="n">
-        <v>689.0451606376862</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O12" t="n">
         <v>127.3777430772297</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6598322481922</v>
+        <v>99.05851180681324</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R12" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>11.04521578690905</v>
       </c>
       <c r="J14" t="n">
-        <v>70.95378870026119</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K14" t="n">
-        <v>114.6696285257465</v>
+        <v>682.5845921806741</v>
       </c>
       <c r="L14" t="n">
-        <v>689.0451606376862</v>
+        <v>148.3149213440237</v>
       </c>
       <c r="M14" t="n">
-        <v>689.0451606376862</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N14" t="n">
-        <v>689.0451606376862</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O14" t="n">
-        <v>201.2080500024194</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P14" t="n">
         <v>132.4874721791957</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.58543128096093</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R14" t="n">
-        <v>39.25536565157984</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.613419238823301</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J15" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K15" t="n">
         <v>79.77758388520263</v>
@@ -35734,22 +35734,22 @@
         <v>114.8742541108275</v>
       </c>
       <c r="M15" t="n">
-        <v>689.0451606376862</v>
+        <v>137.2300999939551</v>
       </c>
       <c r="N15" t="n">
         <v>143.2272277522205</v>
       </c>
       <c r="O15" t="n">
-        <v>561.0349584569</v>
+        <v>127.3777430772297</v>
       </c>
       <c r="P15" t="n">
-        <v>99.05851180681324</v>
+        <v>167.6819561455918</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.02418432232255</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R15" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>114.6696285257465</v>
       </c>
       <c r="L17" t="n">
-        <v>148.3149213440237</v>
+        <v>190.3167313764764</v>
       </c>
       <c r="M17" t="n">
         <v>689.0451606376862</v>
       </c>
       <c r="N17" t="n">
-        <v>689.0451606376862</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O17" t="n">
         <v>161.8679088411305</v>
       </c>
       <c r="P17" t="n">
-        <v>215.7407744899699</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="Q17" t="n">
         <v>588.4025094251379</v>
@@ -35962,16 +35962,16 @@
         <v>5.613419238823301</v>
       </c>
       <c r="J18" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K18" t="n">
-        <v>79.77758388520263</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="L18" t="n">
-        <v>689.0451606376862</v>
+        <v>114.8742541108275</v>
       </c>
       <c r="M18" t="n">
-        <v>548.5314694904977</v>
+        <v>137.2300999939551</v>
       </c>
       <c r="N18" t="n">
         <v>143.2272277522205</v>
@@ -35983,7 +35983,7 @@
         <v>99.05851180681324</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.02418432232255</v>
+        <v>139.1758608966835</v>
       </c>
       <c r="R18" t="n">
         <v>15.61368819538232</v>
@@ -36123,19 +36123,19 @@
         <v>70.95378870026119</v>
       </c>
       <c r="K20" t="n">
-        <v>114.6696285257465</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="L20" t="n">
         <v>689.0451606376862</v>
       </c>
       <c r="M20" t="n">
-        <v>689.0451606376862</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N20" t="n">
-        <v>689.0451606376862</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O20" t="n">
-        <v>201.2080500024194</v>
+        <v>660.9566812400648</v>
       </c>
       <c r="P20" t="n">
         <v>132.4874721791957</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.613419238823301</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J21" t="n">
         <v>334.2238251537001</v>
@@ -36208,7 +36208,7 @@
         <v>114.8742541108275</v>
       </c>
       <c r="M21" t="n">
-        <v>229.5477926604225</v>
+        <v>137.2300999939551</v>
       </c>
       <c r="N21" t="n">
         <v>143.2272277522205</v>
@@ -36217,7 +36217,7 @@
         <v>127.3777430772297</v>
       </c>
       <c r="P21" t="n">
-        <v>99.05851180681324</v>
+        <v>167.6819561455918</v>
       </c>
       <c r="Q21" t="n">
         <v>549.6050376242094</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95378870026121</v>
+        <v>70.95378870026119</v>
       </c>
       <c r="K23" t="n">
         <v>873.169893942272</v>
@@ -36375,13 +36375,13 @@
         <v>1052.940332995955</v>
       </c>
       <c r="P23" t="n">
-        <v>885.4964493004651</v>
+        <v>885.496449300465</v>
       </c>
       <c r="Q23" t="n">
         <v>588.4025094251379</v>
       </c>
       <c r="R23" t="n">
-        <v>39.25536565157986</v>
+        <v>39.25536565157984</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5.613419238823305</v>
+        <v>5.613419238823301</v>
       </c>
       <c r="J24" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K24" t="n">
-        <v>79.77758388520266</v>
+        <v>698.6262384946366</v>
       </c>
       <c r="L24" t="n">
         <v>114.8742541108275</v>
@@ -36448,16 +36448,16 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N24" t="n">
-        <v>207.0616766680748</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O24" t="n">
-        <v>1049.015570184777</v>
+        <v>127.3777430772297</v>
       </c>
       <c r="P24" t="n">
         <v>99.05851180681324</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.02418432232258</v>
+        <v>129.5947830397333</v>
       </c>
       <c r="R24" t="n">
         <v>15.61368819538232</v>
@@ -36530,7 +36530,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O25" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P25" t="n">
         <v>357.6942452169957</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J26" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K26" t="n">
         <v>873.169893942272</v>
@@ -36603,10 +36603,10 @@
         <v>916.6904155150382</v>
       </c>
       <c r="M26" t="n">
-        <v>916.6904155150382</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N26" t="n">
-        <v>415.9777580613008</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O26" t="n">
         <v>161.8679088411305</v>
@@ -36615,10 +36615,10 @@
         <v>132.4874721791957</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R26" t="n">
-        <v>39.25536565157986</v>
+        <v>135.4542236553027</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J27" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K27" t="n">
-        <v>79.77758388520266</v>
+        <v>79.77758388520263</v>
       </c>
       <c r="L27" t="n">
-        <v>916.6904155150382</v>
+        <v>114.8742541108275</v>
       </c>
       <c r="M27" t="n">
         <v>137.2300999939551</v>
@@ -36691,13 +36691,13 @@
         <v>127.3777430772297</v>
       </c>
       <c r="P27" t="n">
-        <v>282.7146264260037</v>
+        <v>167.6819561455918</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R27" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36767,7 +36767,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O28" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P28" t="n">
         <v>357.6942452169957</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J29" t="n">
-        <v>70.95378870026121</v>
+        <v>70.95378870026119</v>
       </c>
       <c r="K29" t="n">
         <v>873.169893942272</v>
       </c>
       <c r="L29" t="n">
-        <v>916.6904155150382</v>
+        <v>148.3149213440237</v>
       </c>
       <c r="M29" t="n">
-        <v>415.9777580613008</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N29" t="n">
-        <v>916.6904155150382</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O29" t="n">
-        <v>161.8679088411305</v>
+        <v>515.3429408944717</v>
       </c>
       <c r="P29" t="n">
-        <v>132.4874721791957</v>
+        <v>885.496449300465</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R29" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J30" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K30" t="n">
-        <v>79.77758388520266</v>
+        <v>79.77758388520263</v>
       </c>
       <c r="L30" t="n">
-        <v>916.6904155150382</v>
+        <v>114.8742541108275</v>
       </c>
       <c r="M30" t="n">
-        <v>320.8862146131458</v>
+        <v>205.8535443327339</v>
       </c>
       <c r="N30" t="n">
         <v>143.2272277522205</v>
@@ -36931,10 +36931,10 @@
         <v>99.05851180681324</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R30" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37004,7 +37004,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O31" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P31" t="n">
         <v>357.6942452169957</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J32" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K32" t="n">
         <v>873.169893942272</v>
       </c>
       <c r="L32" t="n">
-        <v>916.6904155150382</v>
+        <v>859.1128510159814</v>
       </c>
       <c r="M32" t="n">
-        <v>404.1067024449139</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N32" t="n">
         <v>173.7389644575173</v>
       </c>
       <c r="O32" t="n">
-        <v>916.6904155150382</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P32" t="n">
         <v>132.4874721791957</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R32" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J33" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K33" t="n">
-        <v>79.77758388520266</v>
+        <v>79.77758388520263</v>
       </c>
       <c r="L33" t="n">
         <v>114.8742541108275</v>
       </c>
       <c r="M33" t="n">
-        <v>916.6904155150382</v>
+        <v>205.8535443327339</v>
       </c>
       <c r="N33" t="n">
-        <v>349.2391882545389</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O33" t="n">
         <v>127.3777430772297</v>
@@ -37168,10 +37168,10 @@
         <v>99.05851180681324</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R33" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37241,7 +37241,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O34" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P34" t="n">
         <v>357.6942452169957</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J35" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K35" t="n">
-        <v>114.6696285257465</v>
+        <v>126.0269037221837</v>
       </c>
       <c r="L35" t="n">
-        <v>148.3149213440238</v>
+        <v>148.3149213440237</v>
       </c>
       <c r="M35" t="n">
+        <v>170.22719346827</v>
+      </c>
+      <c r="N35" t="n">
+        <v>173.7389644575173</v>
+      </c>
+      <c r="O35" t="n">
+        <v>161.8679088411305</v>
+      </c>
+      <c r="P35" t="n">
         <v>689.0451606376862</v>
       </c>
-      <c r="N35" t="n">
-        <v>689.0451606376862</v>
-      </c>
-      <c r="O35" t="n">
-        <v>689.0451606376862</v>
-      </c>
-      <c r="P35" t="n">
-        <v>185.3806008375912</v>
-      </c>
       <c r="Q35" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R35" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J36" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K36" t="n">
-        <v>689.0451606376862</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L36" t="n">
         <v>114.8742541108275</v>
@@ -37402,13 +37402,13 @@
         <v>127.3777430772297</v>
       </c>
       <c r="P36" t="n">
-        <v>475.2632110777308</v>
+        <v>99.05851180681324</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R36" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37478,7 +37478,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O37" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P37" t="n">
         <v>357.6942452169957</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J38" t="n">
         <v>466.6398682029139</v>
       </c>
       <c r="K38" t="n">
-        <v>682.584592180674</v>
+        <v>114.6696285257465</v>
       </c>
       <c r="L38" t="n">
-        <v>148.3149213440238</v>
+        <v>148.3149213440237</v>
       </c>
       <c r="M38" t="n">
         <v>170.22719346827</v>
@@ -37557,10 +37557,10 @@
         <v>173.7389644575173</v>
       </c>
       <c r="O38" t="n">
-        <v>161.8679088411305</v>
+        <v>173.2251840375677</v>
       </c>
       <c r="P38" t="n">
-        <v>132.4874721791957</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="Q38" t="n">
         <v>588.4025094251379</v>
@@ -37624,7 +37624,7 @@
         <v>334.2238251537001</v>
       </c>
       <c r="K39" t="n">
-        <v>79.77758388520266</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L39" t="n">
         <v>114.8742541108275</v>
@@ -37633,7 +37633,7 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N39" t="n">
-        <v>211.8506720909992</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O39" t="n">
         <v>127.3777430772297</v>
@@ -37715,7 +37715,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O40" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P40" t="n">
         <v>357.6942452169957</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J41" t="n">
-        <v>70.95378870026121</v>
+        <v>416.2661385964158</v>
       </c>
       <c r="K41" t="n">
-        <v>114.6696285257465</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="L41" t="n">
-        <v>148.3149213440238</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="M41" t="n">
         <v>170.22719346827</v>
@@ -37794,13 +37794,13 @@
         <v>173.7389644575173</v>
       </c>
       <c r="O41" t="n">
-        <v>689.0451606376862</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P41" t="n">
-        <v>568.9112635402204</v>
+        <v>132.4874721791957</v>
       </c>
       <c r="Q41" t="n">
-        <v>588.4025094251379</v>
+        <v>91.58543128096093</v>
       </c>
       <c r="R41" t="n">
         <v>193.0317881543588</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J42" t="n">
         <v>334.2238251537001</v>
       </c>
       <c r="K42" t="n">
-        <v>79.77758388520266</v>
+        <v>79.77758388520263</v>
       </c>
       <c r="L42" t="n">
         <v>114.8742541108275</v>
       </c>
       <c r="M42" t="n">
-        <v>137.2300999939551</v>
+        <v>205.8535443327337</v>
       </c>
       <c r="N42" t="n">
         <v>143.2272277522205</v>
@@ -37876,13 +37876,13 @@
         <v>127.3777430772297</v>
       </c>
       <c r="P42" t="n">
-        <v>297.8969118317711</v>
+        <v>99.05851180681324</v>
       </c>
       <c r="Q42" t="n">
         <v>549.6050376242094</v>
       </c>
       <c r="R42" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O43" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P43" t="n">
         <v>357.6942452169957</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.04521578690906</v>
+        <v>11.04521578690905</v>
       </c>
       <c r="J44" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K44" t="n">
-        <v>114.6696285257465</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="L44" t="n">
-        <v>148.3149213440238</v>
+        <v>638.6714310311881</v>
       </c>
       <c r="M44" t="n">
-        <v>689.0451606376862</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N44" t="n">
         <v>173.7389644575173</v>
@@ -38034,10 +38034,10 @@
         <v>161.8679088411305</v>
       </c>
       <c r="P44" t="n">
-        <v>577.2705481673596</v>
+        <v>132.4874721791957</v>
       </c>
       <c r="Q44" t="n">
-        <v>588.4025094251379</v>
+        <v>91.58543128096093</v>
       </c>
       <c r="R44" t="n">
         <v>193.0317881543588</v>
@@ -38095,10 +38095,10 @@
         <v>29.30766756651203</v>
       </c>
       <c r="J45" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K45" t="n">
-        <v>79.77758388520266</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L45" t="n">
         <v>114.8742541108275</v>
@@ -38107,19 +38107,19 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N45" t="n">
-        <v>689.0451606376862</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O45" t="n">
-        <v>543.3378378874766</v>
+        <v>127.3777430772297</v>
       </c>
       <c r="P45" t="n">
         <v>99.05851180681324</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R45" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>95.57730212373436</v>
+        <v>95.57730212373465</v>
       </c>
       <c r="K46" t="n">
         <v>290.4484113090493</v>
@@ -38189,7 +38189,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O46" t="n">
-        <v>433.9998831050556</v>
+        <v>433.9998831050555</v>
       </c>
       <c r="P46" t="n">
         <v>357.6942452169957</v>
